--- a/01-데이터수집/블로그_수집.xlsx
+++ b/01-데이터수집/블로그_수집.xlsx
@@ -14,60 +14,603 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>제목</t>
-  </si>
-  <si>
-    <t>작성일</t>
-  </si>
-  <si>
-    <t>요약</t>
-  </si>
-  <si>
-    <t>[R] 패키지의 이해</t>
-  </si>
-  <si>
-    <t>[R] 내장함수</t>
-  </si>
-  <si>
-    <t>[R] 함수의 이해</t>
-  </si>
-  <si>
-    <t>[R] 프로그램 흐름제어 (3) - 기본 문법 활용하기</t>
-  </si>
-  <si>
-    <t>[R] 프로그램 흐름제어 (2) - 반복문</t>
-  </si>
-  <si>
-    <t>2022-12-14</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-12-12</t>
-  </si>
-  <si>
-    <t>2022-12-11</t>
-  </si>
-  <si>
-    <t>2022-12-10</t>
-  </si>
-  <si>
-    <t>패키지란 R이 제공하지 않는 기능을 구현해 놓은 일종의 확장팩을 말합니다. 온라인에 등록되어 있는 패키지를 다운로드 받아 설치하고 그 패키지에 포함된 기능들을 로드해서 사용할 수 있으며 대부분의 데이터 분석, 시각화 관련 기능은 패키지를 통해 제공됩니다.</t>
-  </si>
-  <si>
-    <t>내장함수는 데이터 분석가에게 제공되어질 목적으로 R 안에 사전에 정의되어 내장되어 있는 기능으로 대부분 기본 데이터(스칼라값)를 가공하는 기능입니다. R에 내장되어 있는 기능이므로 내부 코드를 볼 수는 없기 때문에 어떤 종류가 있는지, 어떤 파라미터를 전달하는지, 어떤 결과값을 반환하는지만 파악해서 활용하는 것에 중점을 두고 파악하는 것이 중요합니다.</t>
-  </si>
-  <si>
-    <t>함수란 자주 사용되는 명령어들을 그룹화해서 생성한 재사용 가능 단위를 의미합니다. 어릴적 공부한 수학의 함수도 같은 의미로 이해할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>if, while, for 문은 각각의 블록({}) 안에 같은 종류의 구문 혹은 다른 종류의 구문을 포함할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>주어진 조건을 충족하는 동안 {}안의 구문을 반복적으로 수행하는 형태를 반복문이라고 합니다.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="199">
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>가격</t>
+  </si>
+  <si>
+    <t>할인가</t>
+  </si>
+  <si>
+    <t>할인율</t>
+  </si>
+  <si>
+    <t>리뷰수</t>
+  </si>
+  <si>
+    <t>별점</t>
+  </si>
+  <si>
+    <t>베이직스 2022 베이직북 14 3세대, BB1422SS, 256GB, 화이트, WIN11 Pro, 셀러론, 8GB</t>
+  </si>
+  <si>
+    <t>레노버 2022 아이디어패드 노트북, 아틱그레이, SLIM3 15ITL6, 코어i7, 256GB, 16GB, Free DOS</t>
+  </si>
+  <si>
+    <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA76K, 라이젠7, 16GB, WIN11 Home</t>
+  </si>
+  <si>
+    <t>HP 프로북 440 G3 14인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 가성비 사무용 중고노트북, ProBook 440 G3, WIN11 Pro, 8GB, 628GB, 코어i5</t>
+  </si>
+  <si>
+    <t>레노버 씽크패드 E570 15.6인치 6세대 Core-i5 RAM 8GB ~ 16GB NVMe SSD 256GB~512GB 탑재 윈도우11 Pro 설치 중고노트북, WIN11 Pro, 1012GB, 코어i5, 블랙</t>
+  </si>
+  <si>
+    <t>LG전자 2022 울트라 PC 엣지 16, 256GB, 차콜 그레이, 16U70Q-HA56K, 라이젠5, 16GB, WIN11 Home</t>
+  </si>
+  <si>
+    <t>삼성전자 노트북 플러스2 NT550XDA-K14AT(셀러론 39.6cm Win11Pro RAM 8GB NVMe 128GB 15.6 화이트), 화이트, 셀러론, WIN11 Pro, NT550XDA-K14A</t>
+  </si>
+  <si>
+    <t>레노버 씽크패드 X390 intel 8세대 Core-i5 RAM 8GB NVMe SSD 장착 윈도우 11설치 1.29Kg 가벼운 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+  </si>
+  <si>
+    <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 16GB, 500GB, 코어i5, 그라파이트</t>
+  </si>
+  <si>
+    <t>레노버 씽크패드 X390 intel 8세대 Core-i5 RAM 8GB NVMe SSD 장착 윈도우 11설치 1.29Kg 가벼운 중고 노트북, WIN11 Pro, 256GB, 코어i5, 블랙</t>
+  </si>
+  <si>
+    <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 16GB, 1TB, 코어i5</t>
+  </si>
+  <si>
+    <t>삼성전자 2022 갤럭시북 2 15.6, 256GB, 실버, NT550XED-K78AS, 코어i7, 16GB, WIN11 Home</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 15, 내추럴 실버, 코어i5, 512GB, 16GB, WIN11 Home, HP 15-fd0096tu</t>
+  </si>
+  <si>
+    <t>에이수스 젠북 14, 폰더 블루, UX3402ZA-KM053W, 512GB, 코어i5, 16GB, WIN11 Home</t>
+  </si>
+  <si>
+    <t>MSI 2023 GF63 씬 12VE 15.6, 블랙, 코어i7, 512GB, 8GB, Free DOS, MS-16R</t>
+  </si>
+  <si>
+    <t>LG전자 2023 그램 16 베이직 인텔EVO 플랫폼 탑재 외장그래픽, 옵시디안 블랙, 코어i7, 512GB, 16GB, WIN11 Home, 16Z90R-EA7CK</t>
+  </si>
+  <si>
+    <t>에이수스 Vivobook Go 15, 쿨 실버, 라이젠5, 256GB, 16GB, Free DOS, E1504FA-BQ494</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, Free DOS, 15-fc0076AU</t>
+  </si>
+  <si>
+    <t>Apple 2020 맥북 에어 13, 스페이스 그레이, M1, 256GB, 8GB, MGN63KH/A</t>
+  </si>
+  <si>
+    <t>레노버 씽크패드 E14 Gen2 2021년 12월 제조 14인치 IPS 인텔 11세대 Core-i5 RAM 16GB NVMe SSD탑재 윈도우 11설치 단기사용 중고 노트북, WIN11 Pro, 512GB, 코어i5, 블랙</t>
+  </si>
+  <si>
+    <t>HP 프로북 430 G3 13.3인치 인텔 6세대 Core-i5 M.2 SSD탑재 윈도우11설치 중고노트북 1.5Kg ProBook, ProBook 430 G3, WIN11 Pro, 8GB, 756GB, 코어i5</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 15, 네추럴 실버, 라이젠5, 512GB, 16GB, WIN11 Home, 15-fc0072AU</t>
+  </si>
+  <si>
+    <t>DELL 레티튜드 5400 14인치 터치 디스플레이 인텔 8세대 Core-i5 RAM 16GB NVMe SSD 256GB~1TB 탑재 윈도우11설치 중고 노트북 사은품 증정, Latitude 5400, WIN11 Pro, 1TB, 코어i5, 블랙</t>
+  </si>
+  <si>
+    <t>HP 2023 빅터스 16, HP Victus 16-d1202TX, Free DOS, Mica Silver, 512GB, 코어i7, 16GB</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 15, 네추럴 실버, 라이젠5, 512GB, 16GB, Free DOS, 15-fc0065AU</t>
+  </si>
+  <si>
+    <t>HP 2023 빅터스 16, HP Victus 16-d1203TX, Free DOS, Ceramic White, 512GB, 코어i7, 16GB</t>
+  </si>
+  <si>
+    <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AT, WIN11 Pro, 8GB, 256GB, 펜티엄, 퓨어 화이트</t>
+  </si>
+  <si>
+    <t>Apple 2022 맥북 에어, 미드나이트, M2 8코어, GPU 8코어, 256GB, 8GB, 30W, 한글, MLY33KH/A</t>
+  </si>
+  <si>
+    <t>Apple 2020 맥북 에어 13, 실버, M1, 256GB, 8GB, MGN93KH/A</t>
+  </si>
+  <si>
+    <t>마이크로소프트 2022 Surface Laptop Go 2 12.4, 8QC-00019, Metal, 코어i5, 128GB, WIN11 Home, 8GB</t>
+  </si>
+  <si>
+    <t>LG전자 그램 15 인텔EVO 플랫폼 탑재, 옵시디안 블랙, 코어i7, 512GB, 16GB, WIN11 Home, 15Z90R-GA7CK</t>
+  </si>
+  <si>
+    <t>삼성전자 갤럭시북2/3 15.6 재택근무 학습용 노트북, NT550-I5, WIN11 Home, 8GB, 250GB, 코어i5, 그라파이트</t>
+  </si>
+  <si>
+    <t>레노버 2022 아이디어패드 슬림 1 15IGL7, 4GB, ideapad slim 1 15 IGL 82V7000PKR, 셀러론, 128GB, Cloud Grey, WIN11 Home S</t>
+  </si>
+  <si>
+    <t>델 2022 Inspiron 15 3525, 카본 블랙, Inspiron 15 DN3525-WH02KR, 라이젠5 4세대, 256GB, 8GB, WIN11 Home</t>
+  </si>
+  <si>
+    <t>LG그램 15.6인치 15Z960 (i5-6200U 256GB 8GB Win10 Pro) + 사은품 4종 [디에스컴], WIN10 Pro, 코어i5, 화이트</t>
+  </si>
+  <si>
+    <t>HP 2023 엔비 x360 15, Natural Silver Aluminum, 코어i7, 512GB, 16GB, WIN11 Home, HP ENVY x360 2-in-1 Laptop 15 - ew0051TU</t>
+  </si>
+  <si>
+    <t>아이뮤즈 2021 스톰북5 15.6, 화이트, 셀러론, 192GB, 4GB, WIN10 Home, STORMBOOK5</t>
+  </si>
+  <si>
+    <t>디클 클릭북 D14 프로, 화이트, 셀러론, 256GB, 8GB, WIN11 Home, i1410</t>
+  </si>
+  <si>
+    <t>디클 클릭북 D14 프로, 256GB, 핑크, WIN11 Home, 셀러론, 8GB</t>
+  </si>
+  <si>
+    <t>LG전자 2023 울트라 PC 15, 화이트, 코어i5, 256GB, 8GB, WIN11 Home, 15U50Q-SR5CK</t>
+  </si>
+  <si>
+    <t>삼성전자 2021 노트북 플러스2 15.6, 퓨어 화이트, 셀러론, NVMe128GB, 8GB, WIN10 Pro, NT550XDA-K14AW</t>
+  </si>
+  <si>
+    <t>코어 i5 6세대 사무용 인강용 윈도우10 HP 840 G3노트북, 840 G3, WIN10 Pro, 8GB, 512GB, 코어i5, 실버</t>
+  </si>
+  <si>
+    <t>레노버 2022 ThinkPad E15 G4, 256GB, Black, 라이젠5, ThinkPad E15 G4 Barcelo 21ED004EKD, Free DOS, 8GB</t>
+  </si>
+  <si>
+    <t>아이뮤즈 스톰북 노트북 N4020 35.81cm, 화이트, 셀러론, 64GB, 4GB, Windows, StormBooK14</t>
+  </si>
+  <si>
+    <t>삼성전자 2021 노트북 플러스2 15.6, NT550XDA-K24AY, WIN11 Pro, 8GB, 256GB, 펜티엄, 미스틱 그레이</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 15, 젯 블랙, 라이젠3, 256GB, 8GB, WIN11 Home, 15-fc0073AU</t>
+  </si>
+  <si>
+    <t>HP 2023 14s 노트북 14, 256GB, Free DOS, dq5071TU, 스노우 화이트, 코어i5, 8GB</t>
+  </si>
+  <si>
+    <t>LG 15U530 (인텔i5/램16G/SSD256G/지포스 GT720M/15.6인치/윈도우10), WIN10, 16GB, 256GB, 코어i5, 실버</t>
+  </si>
+  <si>
+    <t>삼성 2021 노트북 플러스2 15.6, 미스틱 그레이, 셀러론, NVMe128GB + SSD256GB, 8GB, WIN10 Pro, NT550XDA-K14AG</t>
+  </si>
+  <si>
+    <t>베이직스 2023 베이직북S 10.1, 화이트, 셀러론, 128GB, 8GB, WIN11 Pro, BB1022FW</t>
+  </si>
+  <si>
+    <t>LG 15UB470 I5-6200/8G/SSD128G/HD520/15.6/WIN10</t>
+  </si>
+  <si>
+    <t>HP 2023 노트북 14s, Snow White, 코어i5, 512GB, 16GB, WIN11 Pro, HP 14s-dq5071TU</t>
+  </si>
+  <si>
+    <t>코어 i7 6700HQ 사무용 가정용 포토샵 노트북 윈도우10 HP ZBOOK G3, HP ZBOOK 15 G3, WIN10 Pro, 16GB, 512GB, 코어i7, 블랙</t>
+  </si>
+  <si>
+    <t>삼성전자 노트북 플러스2 NT550XDA-K14A 삼성노트북 최신 윈도우11 탑재, WIN11 Pro, 8GB, 128GB, 셀러론, 화이트</t>
+  </si>
+  <si>
+    <t>삼성전자 NT371B5J i5 8G SSD256GB Win10</t>
+  </si>
+  <si>
+    <t>레노버 2022 V15 G3 ABA, Iron Gray, 256GB, Free DOS, Lenovo V15 G3 ABA - 82TV0030KR_ram8g, 라이젠5, 8GB</t>
+  </si>
+  <si>
+    <t>삼성전자 갤럭시북2 NT550XEZ-A58A +Windows 포함 12세대 i5, 삼성 NT550XEZ-A58A, WIN11 Pro, 16GB, 512GB, 12세대 인텔 코어 i5, 실버&amp;그라파이트</t>
+  </si>
+  <si>
+    <t>마이크로소프트 2022 Surface Laptop 4 15, 플래티넘, 라이젠7, 256GB, 8GB, WIN11 Home, 5UI-00047</t>
+  </si>
+  <si>
+    <t>삼성전자 노트북 플러스2 15.6 펜티엄 한컴오피스 WIN11 Pro Edu NT550XDA-K24A, 16GB, 256GB, 미스틱 그레이(A-K24AY)</t>
+  </si>
+  <si>
+    <t>델 2022 인스피론 15 3525, P112F, 카본 블랙, 512GB, 라이젠7, WIN11 Home, 8GB</t>
+  </si>
+  <si>
+    <t>삼성 2021 노트북 플러스2 15.6, 퓨어 화이트, 펜티엄, NVMe128GB, 8GB, WIN10 Pro, NT550XDA-K24AW</t>
+  </si>
+  <si>
+    <t>삼성전자 노트북 플러스2 NT550XDA-K24AT/Y 한컴오피스 증정(펜티엄 39.6cm Win11Pro RAM (8GB/16GB) SSD 378/628GB), 퓨어화이트(A-K24AT), NT550XDA-K24A, 펜티엄, 378GB, 16GB, WIN11 Pro</t>
+  </si>
+  <si>
+    <t>레노버 2020 IdeaPad S150-11 PRO, 아이스 블루, 셀러론, 128GB, 4GB, Free DOS</t>
+  </si>
+  <si>
+    <t>삼성 사무용 인강 노트북 인텔 i5 i7 SSD장착 윈10 홈, NT370E, WIN10 Home, 16GB, 256GB, 코어i5 6세대, 블랙</t>
+  </si>
+  <si>
+    <t>레노버 씽크패드 T470s, WIN10 Pro, 16GB, 256GB, 코어i7, 블랙</t>
+  </si>
+  <si>
+    <t>삼성 사무용 게이밍 노트북 롤 포토샵 윈10 pro 탑재 SSD i5 (NT371B5L), NT371B5L, 코어i5, 512GB, 16GB, WIN10 Pro</t>
+  </si>
+  <si>
+    <t>삼성 B급 NT901X3L i5 8G 256G Win10 중고노트북</t>
+  </si>
+  <si>
+    <t>LG 울트라PC 15U560 6세대 i5 지포스940M 15.6인치 윈도우10, 8GB, WIN10 Pro, 628GB, 코어i5, 화이트</t>
+  </si>
+  <si>
+    <t>레노버 2020 IdeaPad S150 11.6, 아이스 블루, 셀러론, 64GB, 4GB, WIN10 Home, 81VT00QKR</t>
+  </si>
+  <si>
+    <t>삼성 노트북3 NT371B5J I5-4310M/8G/SSD256G/HD4600/15.6/WIN10</t>
+  </si>
+  <si>
+    <t>1,800,000</t>
+  </si>
+  <si>
+    <t>1,259,000</t>
+  </si>
+  <si>
+    <t>569,000</t>
+  </si>
+  <si>
+    <t>1,329,000</t>
+  </si>
+  <si>
+    <t>869,000</t>
+  </si>
+  <si>
+    <t>1,449,000</t>
+  </si>
+  <si>
+    <t>2,990,000</t>
+  </si>
+  <si>
+    <t>439,000</t>
+  </si>
+  <si>
+    <t>1,390,000</t>
+  </si>
+  <si>
+    <t>639,000</t>
+  </si>
+  <si>
+    <t>1,590,000</t>
+  </si>
+  <si>
+    <t>849,000</t>
+  </si>
+  <si>
+    <t>2,467,000</t>
+  </si>
+  <si>
+    <t>900,000</t>
+  </si>
+  <si>
+    <t>641,000</t>
+  </si>
+  <si>
+    <t>1,588,000</t>
+  </si>
+  <si>
+    <t>629,000</t>
+  </si>
+  <si>
+    <t>299,000</t>
+  </si>
+  <si>
+    <t>649,000</t>
+  </si>
+  <si>
+    <t>279,000</t>
+  </si>
+  <si>
+    <t>559,000</t>
+  </si>
+  <si>
+    <t>399,000</t>
+  </si>
+  <si>
+    <t>769,000</t>
+  </si>
+  <si>
+    <t>1,352,000</t>
+  </si>
+  <si>
+    <t>739,000</t>
+  </si>
+  <si>
+    <t>699,000</t>
+  </si>
+  <si>
+    <t>1,000,000</t>
+  </si>
+  <si>
+    <t>439,860</t>
+  </si>
+  <si>
+    <t>398,000</t>
+  </si>
+  <si>
+    <t>1,345,500</t>
+  </si>
+  <si>
+    <t>259,000</t>
+  </si>
+  <si>
+    <t>459,000</t>
+  </si>
+  <si>
+    <t>990,000</t>
+  </si>
+  <si>
+    <t>939,000</t>
+  </si>
+  <si>
+    <t>520,000</t>
+  </si>
+  <si>
+    <t>389,000</t>
+  </si>
+  <si>
+    <t>1,199,000</t>
+  </si>
+  <si>
+    <t>829,000</t>
+  </si>
+  <si>
+    <t>1,399,000</t>
+  </si>
+  <si>
+    <t>1,594,500</t>
+  </si>
+  <si>
+    <t>2,297,000</t>
+  </si>
+  <si>
+    <t>269,000</t>
+  </si>
+  <si>
+    <t>479,000</t>
+  </si>
+  <si>
+    <t>598,990</t>
+  </si>
+  <si>
+    <t>549,000</t>
+  </si>
+  <si>
+    <t>1,432,300</t>
+  </si>
+  <si>
+    <t>1,269,000</t>
+  </si>
+  <si>
+    <t>700,000</t>
+  </si>
+  <si>
+    <t>2,007,000</t>
+  </si>
+  <si>
+    <t>831,720</t>
+  </si>
+  <si>
+    <t>693,000</t>
+  </si>
+  <si>
+    <t>523,000</t>
+  </si>
+  <si>
+    <t>1,298,990</t>
+  </si>
+  <si>
+    <t>369,000</t>
+  </si>
+  <si>
+    <t>1,228,050</t>
+  </si>
+  <si>
+    <t>289,000</t>
+  </si>
+  <si>
+    <t>233,050</t>
+  </si>
+  <si>
+    <t>489,000</t>
+  </si>
+  <si>
+    <t>498,000</t>
+  </si>
+  <si>
+    <t>742,000</t>
+  </si>
+  <si>
+    <t>1,183,000</t>
+  </si>
+  <si>
+    <t>609,000</t>
+  </si>
+  <si>
+    <t>325,000</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>21%</t>
+  </si>
+  <si>
+    <t>19%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>23%</t>
+  </si>
+  <si>
+    <t>9%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>22%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>16%</t>
+  </si>
+  <si>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3562</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1037</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>12549</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3760</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
   </si>
 </sst>
 </file>
@@ -425,13 +968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,75 +984,2613 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>165</v>
+      </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>151</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G38" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>185</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>152</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>162</v>
+      </c>
+      <c r="G45" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>140</v>
+      </c>
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" t="s">
+        <v>162</v>
+      </c>
+      <c r="G51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>162</v>
+      </c>
+      <c r="G52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F53" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" t="s">
+        <v>109</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>164</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G56" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" t="s">
+        <v>168</v>
+      </c>
+      <c r="G59" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" t="s">
+        <v>145</v>
+      </c>
+      <c r="F61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F62" t="s">
+        <v>172</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
+      </c>
+      <c r="F63" t="s">
+        <v>173</v>
+      </c>
+      <c r="G63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+      <c r="F64" t="s">
+        <v>173</v>
+      </c>
+      <c r="G64" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" t="s">
+        <v>144</v>
+      </c>
+      <c r="F68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>147</v>
+      </c>
+      <c r="F69" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>177</v>
+      </c>
+      <c r="G72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" t="s">
+        <v>123</v>
+      </c>
+      <c r="E74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" t="s">
+        <v>178</v>
+      </c>
+      <c r="G74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+      <c r="E75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>151</v>
+      </c>
+      <c r="F76" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
+        <v>182</v>
+      </c>
+      <c r="G79" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" t="s">
+        <v>150</v>
+      </c>
+      <c r="F80" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F81" t="s">
+        <v>182</v>
+      </c>
+      <c r="G81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" t="s">
+        <v>127</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
+        <v>182</v>
+      </c>
+      <c r="G82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" t="s">
+        <v>165</v>
+      </c>
+      <c r="G84" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" t="s">
+        <v>153</v>
+      </c>
+      <c r="F85" t="s">
+        <v>162</v>
+      </c>
+      <c r="G85" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>131</v>
+      </c>
+      <c r="E86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" t="s">
+        <v>162</v>
+      </c>
+      <c r="G86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" t="s">
+        <v>187</v>
+      </c>
+      <c r="G87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" t="s">
+        <v>188</v>
+      </c>
+      <c r="G88" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
+        <v>132</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="s">
+        <v>188</v>
+      </c>
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>154</v>
+      </c>
+      <c r="F90" t="s">
+        <v>188</v>
+      </c>
+      <c r="G90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>133</v>
+      </c>
+      <c r="E91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F91" t="s">
+        <v>189</v>
+      </c>
+      <c r="G91" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="s">
+        <v>97</v>
+      </c>
+      <c r="D92" t="s">
+        <v>93</v>
+      </c>
+      <c r="E92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" t="s">
+        <v>145</v>
+      </c>
+      <c r="F93" t="s">
+        <v>162</v>
+      </c>
+      <c r="G93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>134</v>
+      </c>
+      <c r="E94" t="s">
+        <v>145</v>
+      </c>
+      <c r="F94" t="s">
+        <v>162</v>
+      </c>
+      <c r="G94" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" t="s">
+        <v>162</v>
+      </c>
+      <c r="G95" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" t="s">
+        <v>144</v>
+      </c>
+      <c r="F96" t="s">
+        <v>163</v>
+      </c>
+      <c r="G96" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" t="s">
+        <v>98</v>
+      </c>
+      <c r="D97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" t="s">
+        <v>144</v>
+      </c>
+      <c r="F97" t="s">
+        <v>163</v>
+      </c>
+      <c r="G97" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>59</v>
+      </c>
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98" t="s">
+        <v>191</v>
+      </c>
+      <c r="G98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99" t="s">
+        <v>191</v>
+      </c>
+      <c r="G99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s">
+        <v>107</v>
+      </c>
+      <c r="E100" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" t="s">
+        <v>191</v>
+      </c>
+      <c r="G100" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" t="s">
+        <v>107</v>
+      </c>
+      <c r="E101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+      <c r="E102" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" t="s">
+        <v>192</v>
+      </c>
+      <c r="G102" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" t="s">
+        <v>149</v>
+      </c>
+      <c r="F103" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" t="s">
+        <v>149</v>
+      </c>
+      <c r="F104" t="s">
+        <v>193</v>
+      </c>
+      <c r="G104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>66</v>
+      </c>
+      <c r="C105" t="s">
+        <v>101</v>
+      </c>
+      <c r="D105" t="s">
+        <v>120</v>
+      </c>
+      <c r="E105" t="s">
+        <v>140</v>
+      </c>
+      <c r="F105" t="s">
+        <v>162</v>
+      </c>
+      <c r="G105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" t="s">
+        <v>100</v>
+      </c>
+      <c r="D106" t="s">
+        <v>94</v>
+      </c>
+      <c r="E106" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" t="s">
+        <v>194</v>
+      </c>
+      <c r="G106" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" t="s">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" t="s">
+        <v>194</v>
+      </c>
+      <c r="G107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>69</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108" t="s">
+        <v>94</v>
+      </c>
+      <c r="E108" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" t="s">
+        <v>194</v>
+      </c>
+      <c r="G108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" t="s">
+        <v>138</v>
+      </c>
+      <c r="E109" t="s">
+        <v>156</v>
+      </c>
+      <c r="F109" t="s">
+        <v>194</v>
+      </c>
+      <c r="G109" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>71</v>
+      </c>
+      <c r="C110" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" t="s">
+        <v>194</v>
+      </c>
+      <c r="G110" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111" t="s">
+        <v>102</v>
+      </c>
+      <c r="D111" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="C112" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" t="s">
+        <v>194</v>
+      </c>
+      <c r="G112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>74</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" t="s">
+        <v>93</v>
+      </c>
+      <c r="E113" t="s">
+        <v>157</v>
+      </c>
+      <c r="F113" t="s">
+        <v>195</v>
+      </c>
+      <c r="G113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" t="s">
+        <v>93</v>
+      </c>
+      <c r="E114" t="s">
+        <v>157</v>
+      </c>
+      <c r="F114" t="s">
+        <v>195</v>
+      </c>
+      <c r="G114" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
